--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -11,7 +11,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="35">
+  <si>
+    <t>Product Owner</t>
+  </si>
+  <si>
+    <t>Mariana Ramirez Duque (marianar)</t>
+  </si>
   <si>
     <t>ID</t>
   </si>
@@ -40,39 +46,39 @@
     <t>User</t>
   </si>
   <si>
+    <t>be able to register</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>To do</t>
+  </si>
+  <si>
+    <t>Cary</t>
+  </si>
+  <si>
+    <t>be able to login</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Mariana and Cary</t>
+  </si>
+  <si>
+    <t>logout</t>
+  </si>
+  <si>
+    <t>Mariana</t>
+  </si>
+  <si>
     <t>view public playlists</t>
   </si>
   <si>
     <t>I am able to turn them into courses</t>
   </si>
   <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>Mariana</t>
-  </si>
-  <si>
-    <t>be able to register</t>
-  </si>
-  <si>
-    <t>To do</t>
-  </si>
-  <si>
-    <t>Cary</t>
-  </si>
-  <si>
-    <t>be able to login</t>
-  </si>
-  <si>
-    <t>In progress</t>
-  </si>
-  <si>
-    <t>Mariana and Cary</t>
-  </si>
-  <si>
     <t>see the duration of playlist</t>
   </si>
   <si>
@@ -80,9 +86,6 @@
   </si>
   <si>
     <t>Low</t>
-  </si>
-  <si>
-    <t>logout</t>
   </si>
   <si>
     <t>follow other users</t>
@@ -127,12 +130,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <color rgb="FF073763"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <color theme="1"/>
+      <color rgb="FF073763"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -161,13 +164,13 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -447,341 +450,352 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2">
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
         <v>1.0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2">
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1">
         <v>1.0</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="F4" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2">
+    <row r="9">
+      <c r="A9" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="1">
         <v>2.0</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2">
+      <c r="G9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="1">
         <v>3.0</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="G12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="F13" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="2" t="s">
+    <row r="14">
+      <c r="A14" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="2">
+    <row r="15">
+      <c r="A15" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="1">
         <v>3.0</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2">
-        <v>11.0</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2">
-        <v>13.0</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>15</v>
+      <c r="G15" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:E101">
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E3:E102">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH(("High"),(E2))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("High"),(E3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E101">
+  <conditionalFormatting sqref="E3:E102">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH(("Medium"),(E2))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("Medium"),(E3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G100">
+  <conditionalFormatting sqref="G3:G101">
     <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="To do">
-      <formula>NOT(ISERROR(SEARCH(("To do"),(G2))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("To do"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G100">
+  <conditionalFormatting sqref="G3:G101">
     <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH(("Done"),(G2))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("Done"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G1001">
+  <conditionalFormatting sqref="G3:G1002">
     <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="in progress">
-      <formula>NOT(ISERROR(SEARCH(("in progress"),(G2))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("in progress"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E100">
+  <conditionalFormatting sqref="E3:E101">
     <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH(("Low"),(E2))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("Low"),(E3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <drawing r:id="rId1"/>
